--- a/src/uploads/excelGenereado/file1.3.xlsx
+++ b/src/uploads/excelGenereado/file1.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B260AF-984F-4BDC-B1FB-CB02F94F2C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B91CF-735A-4B30-84E0-68C8CF24DCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FD8D9525-E765-4865-B607-0993DBCFD703}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Linea Base en m3</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>%Variación personal capacitado</t>
+  </si>
+  <si>
+    <t>N NIT</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7BC1DB-06AB-44C2-B5C8-791D44EA06B6}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -610,6 +613,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>134567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/uploads/excelGenereado/file1.3.xlsx
+++ b/src/uploads/excelGenereado/file1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B91CF-735A-4B30-84E0-68C8CF24DCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE71E6B-D9E4-475F-A47B-B1762A32E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FD8D9525-E765-4865-B607-0993DBCFD703}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Comercio</t>
   </si>
   <si>
-    <t>Enero</t>
-  </si>
-  <si>
     <t>Ahorro Hidrico</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>N NIT</t>
+  </si>
+  <si>
+    <t>Febrero</t>
   </si>
 </sst>
 </file>
@@ -136,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7BC1DB-06AB-44C2-B5C8-791D44EA06B6}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -485,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -506,7 +509,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <f>(B2-B3)/B2*100</f>
@@ -536,7 +539,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <f>(B8-B7) /B7*100</f>
@@ -545,12 +548,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>500</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>400</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <f>(B13-B14)/B13*100</f>
@@ -610,14 +613,14 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
         <v>134567</v>
       </c>
     </row>

--- a/src/uploads/excelGenereado/file1.3.xlsx
+++ b/src/uploads/excelGenereado/file1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010B91CF-735A-4B30-84E0-68C8CF24DCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C41050-02D0-43EF-8BDB-8F9296892718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FD8D9525-E765-4865-B607-0993DBCFD703}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{FD8D9525-E765-4865-B607-0993DBCFD703}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -108,12 +106,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD1977F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,9 +483,10 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -617,11 +623,12 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>134567</v>
+      <c r="B23" s="1">
+        <v>7979464321</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/uploads/excelGenereado/file1.3.xlsx
+++ b/src/uploads/excelGenereado/file1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE71E6B-D9E4-475F-A47B-B1762A32E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07642FD-6713-4F83-BB8A-C184DFFCF17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FD8D9525-E765-4865-B607-0993DBCFD703}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Linea Base en m3</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>N NIT</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>Bogota</t>
   </si>
   <si>
     <t>Febrero</t>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7BC1DB-06AB-44C2-B5C8-791D44EA06B6}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -622,6 +628,14 @@
       </c>
       <c r="B23" s="1">
         <v>134567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
